--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_03.09.2024_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731699834.4625726</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731699835.6087704</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699834.4625726.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699835.6087704.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>11.995</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>11.984</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.01099999999999923</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731699836.0023048</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731699836.1050398</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699836.0023048.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699836.1050398.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>11.996</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>11.987</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.009000000000000341</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731699836.2084124</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731699836.5148597</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699836.2084124.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699836.5148597.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>11.975</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>11.979</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -695,51 +729,57 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731699836.718456</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731699839.3376846</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699836.718456.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699839.3376846.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>11.995</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>12.032</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-0.03700000000000081</v>
       </c>
-      <c r="L6" t="n">
+      <c r="N6" t="n">
         <v>-0.31</v>
       </c>
     </row>
@@ -747,51 +787,57 @@
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731699839.4758132</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731699839.9638608</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699839.4758132.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699839.9638608.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>12.027</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>12.049</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.02200000000000024</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.18</v>
       </c>
     </row>
@@ -799,51 +845,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731699839.977796</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731699841.0715396</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699839.977796.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699841.0715396.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>12.049</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>12.057</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.008000000000000895</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -851,51 +903,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731699841.1815026</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731699841.3668067</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699841.1815026.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731699841.3668067.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>12.074</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>12.058</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.01600000000000001</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.13</v>
       </c>
     </row>
@@ -903,43 +961,49 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731699842.333144</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731699842.333144.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731699842.333144.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>12.071</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>12.071</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>0</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0</v>
       </c>
     </row>
